--- a/data-raw/dependent_data/survey_DHS&MICS_2022.12.20.xlsx
+++ b/data-raw/dependent_data/survey_DHS&MICS_2022.12.20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saharahmed/Documents/GitHub/bmat/data-raw/dependent_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bmat\data-raw\dependent_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C7EB603F-6D53-0848-8003-E07F79B77033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C51D653F-30D1-4754-9AFA-189EB6A2C63B}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{917F2F1D-2146-4842-A867-8C3CA669BCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26FFA118-D232-47B8-B0A2-61F21D017E0B}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="500" windowWidth="17020" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="30465" windowHeight="16950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated_DHSinput_08June_2022" sheetId="1" r:id="rId1"/>
@@ -1767,11 +1767,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="N105" sqref="N105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="14" width="11" customWidth="1"/>
   </cols>
@@ -6377,20 +6377,20 @@
       <c r="B105" t="s">
         <v>187</v>
       </c>
-      <c r="C105" t="s">
-        <v>169</v>
+      <c r="C105">
+        <v>1992</v>
       </c>
       <c r="D105">
-        <v>1993.9749999999999</v>
+        <v>1985</v>
       </c>
       <c r="E105">
-        <v>2003.9749999999999</v>
+        <v>1992</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
       </c>
       <c r="G105" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H105" t="s">
         <v>19</v>
@@ -6399,19 +6399,19 @@
         <v>20</v>
       </c>
       <c r="J105">
-        <v>0.176373637</v>
+        <v>0.30133489600000002</v>
       </c>
       <c r="K105" t="s">
         <v>21</v>
       </c>
-      <c r="L105" t="s">
-        <v>21</v>
-      </c>
-      <c r="M105" t="s">
-        <v>21</v>
-      </c>
-      <c r="N105" t="s">
-        <v>21</v>
+      <c r="L105">
+        <v>4.5963071000000001E-2</v>
+      </c>
+      <c r="M105">
+        <v>3.4056371649999999</v>
+      </c>
+      <c r="N105">
+        <v>0.153266824</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6421,20 +6421,20 @@
       <c r="B106" t="s">
         <v>187</v>
       </c>
-      <c r="C106">
-        <v>1992</v>
+      <c r="C106" t="s">
+        <v>169</v>
       </c>
       <c r="D106">
-        <v>1985</v>
+        <v>1993.9749999999999</v>
       </c>
       <c r="E106">
-        <v>1992</v>
+        <v>2003.9749999999999</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H106" t="s">
         <v>19</v>
@@ -6443,19 +6443,19 @@
         <v>20</v>
       </c>
       <c r="J106">
-        <v>0.30133489600000002</v>
+        <v>0.176373637</v>
       </c>
       <c r="K106" t="s">
         <v>21</v>
       </c>
-      <c r="L106">
-        <v>4.5963071000000001E-2</v>
-      </c>
-      <c r="M106">
-        <v>3.4056371649999999</v>
-      </c>
-      <c r="N106">
-        <v>0.153266824</v>
+      <c r="L106" t="s">
+        <v>21</v>
+      </c>
+      <c r="M106" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:14">
